--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/常用工具/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A166F77-F740-6443-8FDD-9EBD7F60D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC3CBE-833C-0043-BD64-C0AACF48004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="960" windowWidth="31240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="1560" yWindow="1000" windowWidth="30240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="序列比对" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>BWA</t>
   </si>
@@ -392,6 +392,14 @@
   </si>
   <si>
     <t>可以选择是否添加gtf文件信息两种建立索引的方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fasta参考序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,53 +581,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066DBF39-FF70-3343-B9B8-A15E488A0F6E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -954,14 +959,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
@@ -984,7 +989,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -996,26 +1001,26 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1028,12 +1033,12 @@
         <v>21</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1044,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1059,15 +1064,15 @@
       <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1078,13 +1083,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1092,13 +1097,13 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1107,10 +1112,10 @@
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -1126,23 +1131,22 @@
     <row r="13" spans="1:6">
       <c r="F13" s="3"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="25"/>
+      <c r="D17" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1159,7 +1163,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3:A4" r:id="rId1" tooltip="BWA详细介绍" display="BWA" xr:uid="{B9733601-8341-6E44-B166-1F67756B8F06}"/>
-    <hyperlink ref="A18" r:id="rId2" xr:uid="{75AD9A3C-9B5E-F845-ADCC-8927C9231D0F}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{A0EFEED1-923F-2B49-A809-EC49BB464D42}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{802119AD-4064-B04F-A7BB-7EFF7833D98B}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{E73A81E4-89CC-9F43-874B-D106C99094CA}"/>
+    <hyperlink ref="A5:A6" r:id="rId5" location="bwa-mem2" display="BWA-MEM2" xr:uid="{A7D9A392-A939-694D-A892-79F1649944D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC3CBE-833C-0043-BD64-C0AACF48004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA2C65-BE55-9140-8AF3-3DE6AA81A523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1000" windowWidth="30240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="480" yWindow="1160" windowWidth="30240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>BWA</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <r>
+      <t>STAR</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -285,6 +288,78 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>能够快速地生成高质量的比对结果，并支持大规模并行计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但需要消耗大量的内存。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FASTQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；索引</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以选择是否添加gtf文件信息两种建立索引的方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fasta参考序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>专门用于比对</t>
     </r>
     <r>
@@ -304,7 +379,23 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>数据</t>
+      <t>数据，优点是能够处理较大的基因组并有效地处理剪接变体。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bwa mem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最常用的比对模式，适用于长读段（</t>
     </r>
     <r>
       <rPr>
@@ -313,7 +404,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>,</t>
+      <t>&gt;70bp</t>
     </r>
     <r>
       <rPr>
@@ -323,83 +414,12 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>优点是能够处理较大的基因组并有效地处理剪接变体。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>STAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能够快速地生成高质量的比对结果，并支持大规模并行计算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>但需要消耗大量的内存。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过设置参数可直接输出排序后的BAM文件，无需单独借助SAMtools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FASTQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；索引</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以选择是否添加gtf文件信息两种建立索引的方式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fasta参考序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fastq</t>
+      <t>）的比对。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过设置参数可直接输出排序后的BAM文件，无需单独借助SAMtools，比较消耗内存。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,32 +616,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -944,7 +964,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -953,20 +973,20 @@
     <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="41" style="2" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
@@ -989,7 +1009,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1001,12 +1021,12 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1016,8 +1036,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
@@ -1033,12 +1055,12 @@
         <v>21</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1049,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1065,14 +1087,14 @@
         <v>30</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1083,39 +1105,41 @@
         <v>5</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20"/>
+      <c r="B10" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -1136,13 +1160,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>39</v>
+      <c r="D17" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA2C65-BE55-9140-8AF3-3DE6AA81A523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD143F3C-3D03-B549-9CB6-3A000CFE88D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1160" windowWidth="30240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="3440" yWindow="1180" windowWidth="30240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>BWA</t>
   </si>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建立索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,6 +416,66 @@
   </si>
   <si>
     <t>通过设置参数可直接输出排序后的BAM文件，无需单独借助SAMtools，比较消耗内存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fasta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考基因组序列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwa_index; XXX.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据，通常以gz压缩格式储存。现在一般为双端测序。XXX_1.fq.gz XXX_2.fq.gz</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -514,6 +570,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -567,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,6 +683,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -645,6 +712,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,235 +1034,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066DBF39-FF70-3343-B9B8-A15E488A0F6E}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="19" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="34" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="20"/>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="20"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>39</v>
+      <c r="G7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="20"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="21"/>
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="21"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="F13" s="3"/>
+    <row r="13" spans="1:8">
+      <c r="H13" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:8">
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3:A4" r:id="rId1" tooltip="BWA详细介绍" display="BWA" xr:uid="{B9733601-8341-6E44-B166-1F67756B8F06}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{A0EFEED1-923F-2B49-A809-EC49BB464D42}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{802119AD-4064-B04F-A7BB-7EFF7833D98B}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{E73A81E4-89CC-9F43-874B-D106C99094CA}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{802119AD-4064-B04F-A7BB-7EFF7833D98B}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{E73A81E4-89CC-9F43-874B-D106C99094CA}"/>
     <hyperlink ref="A5:A6" r:id="rId5" location="bwa-mem2" display="BWA-MEM2" xr:uid="{A7D9A392-A939-694D-A892-79F1649944D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD143F3C-3D03-B549-9CB6-3A000CFE88D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052984F8-E71A-054D-84C3-EEA6A50DCDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1180" windowWidth="30240" windowHeight="17320" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="26280" windowHeight="16740" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>BWA</t>
   </si>
@@ -51,13 +51,6 @@
   </si>
   <si>
     <t>FASTQ</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>SAM/BAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -96,23 +89,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>备注</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>描述</t>
-    </r>
-  </si>
-  <si>
+      <t>高效的序列比对工具，适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DNA-seq</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -121,16 +120,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>高效的序列比对工具，适用于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DNA-seq</t>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BWA</t>
     </r>
     <r>
       <rPr>
@@ -140,22 +136,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BWA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>的优化版本，具有更快的速度。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,39 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bwa_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FASTQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组索引</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bwa-mem2_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bwa-mem2 index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,59 +172,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>FASTA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考序列</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常用的序列比对软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涉及的通用文件格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hisat2 index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hisat2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">FASTQ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hisat2_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>STAR</t>
     </r>
     <r>
@@ -316,26 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>FASTQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；索引</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以选择是否添加gtf文件信息两种建立索引的方式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fasta参考序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,18 +263,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">bwa mem </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最常用的比对模式，适用于长读段（</t>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fasta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考基因组序列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的文件格式参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. bwa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建的索引前缀。</t>
     </r>
     <r>
       <rPr>
@@ -400,81 +323,399 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>&gt;70bp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）的比对。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过设置参数可直接输出排序后的BAM文件，无需单独借助SAMtools，比较消耗内存。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列比对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX.fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fasta </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的参考基因组序列</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bwa_index; XXX.fq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fastq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的测序数据，通常以gz压缩格式储存。现在一般为双端测序。XXX_1.fq.gz XXX_2.fq.gz</t>
+      <t>2. fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据，通常以gz压缩格式储存。现在一般为双端测序。XXX_1.fq.gz 和 XXX_2.fq.gz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.fa.amb,  xxx.fa.ann,  xxx.fa.bwt,  xxx.fa.pac,  xxx.fa.sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. bwa-mem2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建的索引前缀。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据，通常以gz压缩格式储存。现在一般为双端测序。XXX_1.fq.gz 和 XXX_2.fq.gz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bwa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认将以输入的参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件为前缀，生成5个索引文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列比对：支持直接输出排序后的bam文件，无需单独借助samtools，需要消耗较多内存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式或 bam格式的比对结果。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.sam/xxx.bam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.fa.0123, xxx.fa.amb, xxx.fa.ann, xxx.fa.bwt, xxx.fa.bwt.2bit.64, xxx.fa.fai, xxx.fa.pac, xxx.fa.sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个索引文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwa-mem2_index; xxx.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwa_index; xxx.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hisat2-build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.fa.1.ht2, xxx.fa.2.ht2, xxx.fa.3.ht2, xxx.fa.4.ht2, xxx.fa.5.ht2, xxx.fa.6.ht2, xxx.fa.7.ht2, xxx.fa.8.ht2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成以.1.ht2 到 .8.ht2 为后缀的8个索引文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对结果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. hisat2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建的索引前缀。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据，通常以gz压缩格式储存。现在一般为双端测序。XXX_1.fq.gz 和 XXX_2.fq.gz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.fa; xxx.gtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. fasta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组序列。 2. gtf 注释文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hisat2_index; xxx.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_index; xxx.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">star </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引所在的目录。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测序数据</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,7 +828,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -622,6 +863,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,15 +900,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,9 +918,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,6 +927,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -713,11 +963,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,27 +1299,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066DBF39-FF70-3343-B9B8-A15E488A0F6E}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="41" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1065,225 +1330,259 @@
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="34" customHeight="1" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="19" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="19" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="19" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="H5" s="20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="19" customHeight="1">
       <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:8" ht="19" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:8" ht="19" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
+    <row r="10" spans="1:8" ht="19" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="28"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="3"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
-        <v>36</v>
-      </c>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="H18" s="3"/>
+    <row r="17" spans="2:8">
+      <c r="B17" s="17"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1300,10 +1599,12 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3:A4" r:id="rId1" tooltip="BWA详细介绍" display="BWA" xr:uid="{B9733601-8341-6E44-B166-1F67756B8F06}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{A0EFEED1-923F-2B49-A809-EC49BB464D42}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{802119AD-4064-B04F-A7BB-7EFF7833D98B}"/>
-    <hyperlink ref="F17" r:id="rId4" xr:uid="{E73A81E4-89CC-9F43-874B-D106C99094CA}"/>
-    <hyperlink ref="A5:A6" r:id="rId5" location="bwa-mem2" display="BWA-MEM2" xr:uid="{A7D9A392-A939-694D-A892-79F1649944D4}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{A0EFEED1-923F-2B49-A809-EC49BB464D42}"/>
+    <hyperlink ref="A5:A6" r:id="rId3" location="bwa-mem2" display="BWA-MEM2" xr:uid="{A7D9A392-A939-694D-A892-79F1649944D4}"/>
+    <hyperlink ref="A7:A8" r:id="rId4" display="HISAT2" xr:uid="{74866DC8-365C-BA4E-A99B-6A7FA100C317}"/>
+    <hyperlink ref="A9:A10" r:id="rId5" display="STAR" xr:uid="{D13CEA6A-91DB-A14D-9C9F-3DB28B8E2B01}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{8BB70885-8001-1043-AB82-6EE76E95DC67}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{62292186-0851-B34A-B3FB-3F5B0BD20E0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052984F8-E71A-054D-84C3-EEA6A50DCDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29AFD3D-55EE-374F-9E83-CAAA91662932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="760" windowWidth="26280" windowHeight="16740" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
@@ -607,6 +607,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hisat2_index; xxx.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_index; xxx.fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">star </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引所在的目录。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测序数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -634,88 +715,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hisat2_index; xxx.fq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_index; xxx.fq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">star </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引所在的目录。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测序数据</t>
+      <t>到 14 个索引文件。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,52 +936,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,7 +1296,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1318,16 +1312,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
@@ -1356,7 +1350,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1374,15 +1368,15 @@
       <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1398,13 +1392,13 @@
       <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="19" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1419,18 +1413,18 @@
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1443,16 +1437,16 @@
       <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="19" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1467,18 +1461,18 @@
       <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1486,21 +1480,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="19" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1509,24 +1503,24 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -1534,18 +1528,18 @@
         <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
@@ -1555,10 +1549,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="3"/>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F865A-DF7E-0043-9530-29B17980AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B7D9F-8142-5F4D-8C12-0B35C5CD1A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="26280" windowHeight="16740" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="6560" yWindow="760" windowWidth="26280" windowHeight="16740" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
+    <sheet name="基因表达定量" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -879,12 +880,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val=".AppleSystemUIFontMonospaced"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -964,6 +959,12 @@
       <color rgb="FF0E0E0E"/>
       <name val=".SF NS"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1026,138 +1027,123 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1477,271 +1463,271 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="28" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="26" style="28" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="28" customWidth="1"/>
-    <col min="8" max="8" width="41" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="22.6640625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="41" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="27" t="s">
@@ -1749,48 +1735,48 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="43" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="32"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="22"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1819,4 +1805,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F5A1A-DD7B-0D43-A380-4AD8622A8182}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B7D9F-8142-5F4D-8C12-0B35C5CD1A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF87AC4-4CEF-0148-A483-49B93D6D99A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="760" windowWidth="26280" windowHeight="16740" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="26280" windowHeight="16740" activeTab="1" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>BWA</t>
   </si>
@@ -849,6 +849,271 @@
       </rPr>
       <t>指定输出文件</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因表达定量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>htseq-count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从比对文件（BAM/SAM 格式）中根据基因注释文件（如 GTF/GFF 格式）计数每个基因的读段数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.sam/xxx.bam; xxx.gtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或bam文件。2. gtf 基因组注释文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene_counts.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算速度快，内存占用低，适用于大数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salmon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用fastq文件，从转录本水平直接计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureCounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureCounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于 SAM/BAM 文件的基因表达计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gene_counts.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gene_counts.txt.summary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速处理大规模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据，适合转录本水平的基因表达定量分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  FeatureCounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分隔的文本文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于计数结果的统计总结信息文件（通常以.summary 结尾）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。需要分别定量之后再合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +1121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -965,6 +1230,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -974,7 +1255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1018,6 +1299,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1027,7 +1319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,6 +1395,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,8 +1440,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066DBF39-FF70-3343-B9B8-A15E488A0F6E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="111" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1479,16 +1819,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1517,7 +1857,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1538,12 +1878,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1562,10 +1902,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1586,12 +1926,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1610,10 +1950,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1634,12 +1974,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1658,10 +1998,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1682,12 +2022,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1706,13 +2046,13 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1730,12 +2070,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -1752,7 +2092,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -1809,13 +2149,208 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F5A1A-DD7B-0D43-A380-4AD8622A8182}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="41" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="46" customHeight="1">
+      <c r="A3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35" customHeight="1">
+      <c r="A4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="22"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{12B8B896-34AE-D646-A8A8-273F91D9A826}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{1B00DA4C-CD58-5C45-A157-7BFA7DC0457C}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{C551D2C0-39A5-3B4C-8D6D-BC0AC199A266}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF87AC4-4CEF-0148-A483-49B93D6D99A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69143800-FA88-AD4E-8F39-66603790E586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="26280" windowHeight="16740" activeTab="1" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="26280" windowHeight="16740" activeTab="1" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>BWA</t>
   </si>
@@ -852,10 +852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基因表达定量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HTSeq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -864,14 +860,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从比对文件（BAM/SAM 格式）中根据基因注释文件（如 GTF/GFF 格式）计数每个基因的读段数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xxx.sam/xxx.bam; xxx.gtf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gene_counts.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureCounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureCounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>salmon index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.cDNA.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salmon_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salmon quant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quant.sf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cufflinks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因表达定量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从比对文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">BAM/SAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）中根据基因注释文件（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GTF/GFF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）计数每个基因的读段数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -879,8 +1048,8 @@
       <rPr>
         <sz val="13"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比对后的</t>
@@ -898,29 +1067,234 @@
       <rPr>
         <sz val="13"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或bam文件。2. gtf 基因组注释文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene_counts.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因组注释文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。需要分别定量之后再合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SAM/BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件的基因表达计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gene_counts.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gene_counts.txt.summary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  FeatureCounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分隔的文本文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于计数结果的统计总结信息文件（通常以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>计算速度快，内存占用低，适用于大数据量</t>
@@ -938,8 +1312,8 @@
       <rPr>
         <sz val="13"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>计数。</t>
@@ -947,57 +1321,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Salmon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用fastq文件，从转录本水平直接计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeatureCounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>featureCounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于 SAM/BAM 文件的基因表达计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gene_counts.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> gene_counts.txt.summary</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立索引，一共有两种建立索引的方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于转录本参考序列的索引构建。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用基因组信息增强的转录本索引构建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考转录本序列。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出一个包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个索引文件的索引目录。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>快速处理大规模</t>
@@ -1008,7 +1436,6 @@
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> RNA-Seq </t>
     </r>
@@ -1016,104 +1443,312 @@
       <rPr>
         <sz val="13"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据，适合转录本水平的基因表达定量分析</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.  FeatureCounts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）分隔的文本文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于计数结果的统计总结信息文件（通常以.summary 结尾）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。需要分别定量之后再合并。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtf</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，对基因表达定量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>salmon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xxx.fq</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引所在的目录。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及的文件格式参考</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定输出目录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">quant.sf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是保存定量结果的文本文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cufflinks</t>
+  </si>
+  <si>
+    <t>genes.fpkm_tracking;  isoforms.fpkm_tracking;  skipped.gtf;  transcripts.gtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行转录本组装和基因表达量估算。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出四个文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.fpkm_tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">isoforms.fpkm_tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了基因水平和转录本水平的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> skipped.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> transcripts.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了转录本组装结果和未成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录本序列</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cdna.fa</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1231,20 +1866,66 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0E0E0E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1255,7 +1936,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1310,6 +1991,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1319,7 +2011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1395,39 +2087,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1440,50 +2132,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2052,7 +2750,7 @@
       <c r="A11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2149,16 +2847,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F5A1A-DD7B-0D43-A380-4AD8622A8182}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="18" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" style="18" customWidth="1"/>
     <col min="5" max="5" width="26" style="18" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" style="18" customWidth="1"/>
@@ -2167,17 +2866,17 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+    <row r="1" spans="1:8" ht="21" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2186,170 +2885,198 @@
       <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="E3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>83</v>
+      <c r="G3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="35" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23" customHeight="1">
+      <c r="A6" s="55"/>
+      <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="40" customHeight="1">
+      <c r="A7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>74</v>
+      <c r="B7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="30"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="H10" s="2"/>
+      <c r="A10" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="22"/>
-      <c r="H14" s="2"/>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H8:H9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{12B8B896-34AE-D646-A8A8-273F91D9A826}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{1B00DA4C-CD58-5C45-A157-7BFA7DC0457C}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{C551D2C0-39A5-3B4C-8D6D-BC0AC199A266}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{C551D2C0-39A5-3B4C-8D6D-BC0AC199A266}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{F91C344C-9452-3841-9B61-863527049610}"/>
+    <hyperlink ref="A5:A6" r:id="rId5" display="Salmon" xr:uid="{25229EA5-1DEE-E246-876F-8C49FB581721}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{7E6C5E55-19D6-154D-96D8-24F12F70EFE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69143800-FA88-AD4E-8F39-66603790E586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A68E2-B5E3-E04D-A327-8A077C244FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="760" windowWidth="26280" windowHeight="16740" activeTab="1" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
     <sheet name="基因表达定量" sheetId="2" r:id="rId2"/>
+    <sheet name="变异检测" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2011,7 +2012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2093,6 +2094,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2132,56 +2169,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2517,16 +2515,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2555,7 +2553,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2576,12 +2574,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2600,10 +2598,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2624,12 +2622,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -2648,10 +2646,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2672,12 +2670,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2696,10 +2694,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2720,12 +2718,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -2744,10 +2742,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2768,12 +2766,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -2790,7 +2788,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -2850,7 +2848,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2867,16 +2865,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2905,7 +2903,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="46" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -2930,11 +2928,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35" customHeight="1">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:8" ht="37" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2957,7 +2955,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2978,12 +2976,12 @@
       <c r="G5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="49" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="55"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
@@ -3002,63 +3000,63 @@
       <c r="G6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="46"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" s="2"/>
@@ -3080,4 +3078,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF59A2-F1BF-1F4B-9B11-0F651E048B19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A68E2-B5E3-E04D-A327-8A077C244FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF79808-C706-084E-832E-448C9AB1638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="760" windowWidth="26280" windowHeight="16740" activeTab="1" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="3300" yWindow="1860" windowWidth="26280" windowHeight="16740" activeTab="3" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
     <sheet name="基因表达定量" sheetId="2" r:id="rId2"/>
     <sheet name="变异检测" sheetId="3" r:id="rId3"/>
+    <sheet name="细菌WGS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>BWA</t>
   </si>
@@ -1749,6 +1750,324 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> cdna.fa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoFreq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lofreq viterbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bacterial WGS workflow </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能模块</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <t>xxx.fastq.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contigs.fa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">de novo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组装</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shovill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SPAdes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发的快速组装工具。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Shovill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过预处理步骤来修正读段，并优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SPAdes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的参数以加快组装过程。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作流基本介绍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>contigs.fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：组装得到的连续序列文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shovill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fastq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据，通常以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩格式储存。现在一般为双端测序。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">XXX_1.fq.gz </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> XXX_2.fq.gz</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1757,7 +2076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1928,6 +2247,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val=".AppleSystemUIFontMonospaced"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2012,7 +2368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2130,6 +2486,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2180,6 +2539,24 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2499,7 +2876,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2515,16 +2892,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2553,7 +2930,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2574,12 +2951,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="52" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2598,10 +2975,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2622,12 +2999,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -2646,10 +3023,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2670,12 +3047,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2694,10 +3071,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2718,12 +3095,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -2742,10 +3119,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="48"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2766,12 +3143,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -2788,7 +3165,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -2847,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F5A1A-DD7B-0D43-A380-4AD8622A8182}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2865,16 +3242,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2955,7 +3332,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2976,12 +3353,12 @@
       <c r="G5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
@@ -3000,7 +3377,7 @@
       <c r="G6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
       <c r="A7" s="38" t="s">
@@ -3082,13 +3459,268 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF59A2-F1BF-1F4B-9B11-0F651E048B19}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="34" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEDF36E-CAFC-954B-B981-3791459DA771}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="59" customWidth="1"/>
+    <col min="2" max="7" width="17.83203125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="44" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
+      <c r="A2" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{F8AD4452-7EDF-1541-8174-FD478F5B7F1E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5949D76C-F07E-6B4E-B3E7-41B4B65CCBBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF79808-C706-084E-832E-448C9AB1638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7724784-186C-8842-8017-74F2F3ECDDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1860" windowWidth="26280" windowHeight="16740" activeTab="3" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="4640" yWindow="940" windowWidth="26280" windowHeight="16740" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
   <si>
     <t>BWA</t>
   </si>
@@ -2068,6 +2068,629 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> XXX_2.fq.gz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用的序列比对软件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lofreq indelqual</t>
+  </si>
+  <si>
+    <t>lofreq call</t>
+  </si>
+  <si>
+    <t>lofreq filter</t>
+  </si>
+  <si>
+    <t>xxx.bam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出经过比对校正后的bam文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对校正，,对已经比对好的 BAM 文件进行局部的比对校正.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入indel质量分数，将 Indel 质量分数插入已经比对好的 BAM 文件中，进一步增强后续变异检测的准确性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LoFreq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+      </rPr>
+      <t>高精度检测单个样品中的低频变异</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，适用于研究病毒、癌症等需要高灵敏度变异检测的领域。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">indel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.xxx.bam; 2. genome.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。通常是使用bwa; 2. 参考基因组（必须是已建立faidx索引的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，一般是比对校正后的bam文件；2. 参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. xxx.bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. xxx.fa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.vcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出包含等位基因频率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lofreq call </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出过滤后的干净</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastp</t>
+  </si>
+  <si>
+    <t>Fastp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于高通量测序数据的质量控制和数据过滤，并且能输出过滤后的html质控报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质控过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入双端或者单端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测序文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. xxx_clean.fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. xxx.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3. xxx.json</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤后的fq文件；2. html格式的质控报告；3. json格式储存的一些质控信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LoFreq</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输出的vcf文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snippy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snippy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于检测单倍体基因组（如细菌、病毒等）中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SNPs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（单核苷酸多态性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Indels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snippy</t>
+  </si>
+  <si>
+    <t>检测单倍体基因组snps和indels变异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. genome.fa; 2. xxxfq.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双端测序文件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2076,7 +2699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2248,12 +2871,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val=".AppleSystemUIFontMonospaced"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -2283,6 +2900,83 @@
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0E0E0E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2368,7 +3062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2486,8 +3180,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2540,22 +3270,82 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2892,16 +3682,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2930,7 +3720,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2951,12 +3741,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="64" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2975,10 +3765,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2999,12 +3789,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -3023,10 +3813,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3047,12 +3837,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3071,10 +3861,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3095,12 +3885,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -3119,10 +3909,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="49"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -3143,12 +3933,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -3165,7 +3955,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -3242,16 +4032,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -3332,7 +4122,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="65" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3353,12 +4143,12 @@
       <c r="G5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="54"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
@@ -3377,7 +4167,7 @@
       <c r="G6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
       <c r="A7" s="38" t="s">
@@ -3459,256 +4249,364 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF59A2-F1BF-1F4B-9B11-0F651E048B19}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="41" customWidth="1"/>
+    <col min="3" max="7" width="14.83203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="39.1640625" style="41" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+    <row r="1" spans="1:8" ht="19" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="34" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
+    <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:8" ht="31" customHeight="1">
+      <c r="A3" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="49"/>
+    <row r="4" spans="1:8" ht="31" customHeight="1">
+      <c r="A4" s="90"/>
+      <c r="B4" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="68"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="50"/>
+    <row r="5" spans="1:8" ht="31" customHeight="1">
+      <c r="A5" s="90"/>
+      <c r="B5" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="68"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="49"/>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="48"/>
+    <row r="7" spans="1:8" ht="45" customHeight="1">
+      <c r="A7" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="49"/>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="50"/>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="70"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="49"/>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="71"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="42"/>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="70"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="72"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="43"/>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="73"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="76"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="42" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="H11:H12"/>
+  <mergeCells count="9">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{E749A47B-FC7F-3F42-9E3E-E5E7DC46933C}"/>
+    <hyperlink ref="A3:A6" r:id="rId2" display="LoFreq" xr:uid="{7BBE7D8C-97E2-BA49-9BBB-E033AF299A97}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEDF36E-CAFC-954B-B981-3791459DA771}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="59" customWidth="1"/>
-    <col min="2" max="7" width="17.83203125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="59" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="59"/>
+    <col min="1" max="1" width="19.1640625" style="41" customWidth="1"/>
+    <col min="2" max="7" width="17.83203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="41" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:8" ht="34" customHeight="1">
+      <c r="A3" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B4" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D4" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E4" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G4" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H4" s="41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="61" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3718,8 +4616,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{F8AD4452-7EDF-1541-8174-FD478F5B7F1E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{5949D76C-F07E-6B4E-B3E7-41B4B65CCBBD}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{F8AD4452-7EDF-1541-8174-FD478F5B7F1E}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{5949D76C-F07E-6B4E-B3E7-41B4B65CCBBD}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{1A863208-3130-094F-BA93-BE0A2AB496A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7724784-186C-8842-8017-74F2F3ECDDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C0BA0F-B2E0-BB49-9CC3-CD67805F492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="940" windowWidth="26280" windowHeight="16740" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="5060" yWindow="1700" windowWidth="26280" windowHeight="16740" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -3062,7 +3062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3219,6 +3219,48 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3294,59 +3336,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3682,16 +3679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -3720,7 +3717,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3741,12 +3738,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="78" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3765,10 +3762,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="72" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3789,12 +3786,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="76" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -3813,10 +3810,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="61"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3837,12 +3834,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="74" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3861,10 +3858,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="72" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3885,12 +3882,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="76" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -3909,10 +3906,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -3933,12 +3930,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="68" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -3955,7 +3952,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -4032,16 +4029,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -4122,7 +4119,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4143,12 +4140,12 @@
       <c r="G5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="76" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
@@ -4167,7 +4164,7 @@
       <c r="G6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="61"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
       <c r="A7" s="38" t="s">
@@ -4265,16 +4262,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -4303,81 +4300,81 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="55" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="53" t="s">
         <v>141</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="82" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
-      <c r="A4" s="90"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="39" t="s">
         <v>142</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:8" ht="31" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="39" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="58" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="46" t="s">
@@ -4389,19 +4386,19 @@
       <c r="F6" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="65" t="s">
         <v>161</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -4417,61 +4414,61 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="69"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="71"/>
+      <c r="H8" s="85"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="70"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="86"/>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="71"/>
+      <c r="H10" s="85"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="44"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
-      <c r="H12" s="75"/>
+      <c r="H12" s="89"/>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
-      <c r="A13" s="74"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="51"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="76"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="42" t="s">
@@ -4516,16 +4513,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -4554,28 +4551,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="61" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="62" t="s">
         <v>152</v>
       </c>
     </row>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F2C8C-1A61-744D-A17D-5C526052AF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605B369-A00D-204B-8E5F-F19245661430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="1200" windowWidth="26280" windowHeight="16740" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="940" yWindow="2080" windowWidth="22340" windowHeight="14420" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="185">
   <si>
     <t>BWA</t>
   </si>
@@ -1912,69 +1912,983 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从比对文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">BAM/SAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）中根据基因注释文件（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GTF/GFF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）计数每个基因的读段数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因组注释文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。需要分别定量之后再合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SAM/BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件的基因表达计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gene_counts.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gene_counts.txt.summary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  FeatureCounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分隔的文本文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于计数结果的统计总结信息文件（通常以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算速度快，内存占用低，适用于大数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立索引，一共有两种建立索引的方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于转录本参考序列的索引构建。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用基因组信息增强的转录本索引构建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考转录本序列。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出一个包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个索引文件的索引目录。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速处理大规模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，对基因表达定量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>salmon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xxx.fq</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引所在的目录。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定输出目录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">quant.sf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是保存定量结果的文本文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行转录本组装和基因表达量估算。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出四个文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.fpkm_tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">isoforms.fpkm_tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了基因水平和转录本水平的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> skipped.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> transcripts.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了转录本组装结果和未成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及的文件格式参考</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录本序列</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cdna.fa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk CombineGVCFs</t>
+  </si>
+  <si>
+    <t>gatk GenotypeGVCFs</t>
+  </si>
+  <si>
+    <t>gatk VariantFiltration</t>
+  </si>
+  <si>
+    <t>创建参考基因组的s序列字典文件（.dict），供 GATK 和其他工具使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genome.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记 PCR 或测序过程中的重复读段，以避免在变异检测中因重复读段而产生偏差。</t>
+  </si>
+  <si>
+    <t>将多个样本的 GVCF 文件合并为一个 GVCF 文件。</t>
+  </si>
+  <si>
+    <t>BCFtools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools mpilup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过堆叠比对数据生成变异候选位点的序列深度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.xxx.bam; 2. genome.fa</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。通常是使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bwa; 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组（必须是已建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>faidx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引的）</t>
+    </r>
+  </si>
+  <si>
+    <t>xxx.vcf.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pileup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息，并输出用于后续变异检测的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> VCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk CreateSequenceDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk MarkDuplicates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gatk HaplotypeCaller</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从比对文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">BAM/SAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式）中根据基因注释文件（如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> GTF/GFF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式）计数每个基因的读段数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>比对后的</t>
@@ -1986,110 +2900,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>sam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>bam</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因组注释文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。需要分别定量之后再合并。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>基于</t>
@@ -2101,588 +2932,42 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> SAM/BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件的基因表达计数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gene_counts.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> gene_counts.txt.summary</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.  FeatureCounts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）分隔的文本文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于计数结果的统计总结信息文件（通常以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结尾）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算速度快，内存占用低，适用于大数据量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RNA-Seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立索引，一共有两种建立索引的方式，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于转录本参考序列的索引构建。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用基因组信息增强的转录本索引构建</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的参考转录本序列。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出一个包含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个索引文件的索引目录。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速处理大规模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RNA-Seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件，对基因表达定量</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>salmon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> xxx.fq</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引所在的目录。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2. fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的测序数据。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指定输出目录，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">quant.sf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是保存定量结果的文本文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件进行转录本组装和基因表达量估算。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出四个文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>genes.fpkm_tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">isoforms.fpkm_tracking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别记录了基因水平和转录本水平的。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> skipped.gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> transcripts.gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别记录了转录本组装结果和未成功</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涉及的文件格式参考</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转录本序列</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> cdna.fa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk CreateSequenceDictionary</t>
-  </si>
-  <si>
-    <t>gatk MarkDuplicates</t>
-  </si>
-  <si>
-    <t>gatk CombineGVCFs</t>
-  </si>
-  <si>
-    <t>gatk GenotypeGVCFs</t>
-  </si>
-  <si>
-    <t>gatk VariantFiltration</t>
+      <t>mpilup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行最终的变异调用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3026,7 +3311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3177,15 +3462,63 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3225,6 +3558,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3232,18 +3577,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3261,58 +3594,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3649,16 +3949,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -3687,7 +3987,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3708,12 +4008,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3732,10 +4032,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="62"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3756,12 +4056,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="60"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -3780,10 +4080,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="75" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3804,12 +4104,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="77" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3828,10 +4128,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3852,12 +4152,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="79" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -3876,10 +4176,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="62"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="69" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -3900,12 +4200,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="71" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -3922,7 +4222,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="56"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -3987,28 +4287,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="52" customWidth="1"/>
-    <col min="5" max="5" width="26" style="52" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="41" style="52" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="26" style="50" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="41" style="50" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -4037,129 +4337,129 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="46" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="81" t="s">
+      <c r="F3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="37" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="37" customHeight="1">
-      <c r="A4" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="82" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="70" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="69"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="40" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="71"/>
-    </row>
-    <row r="7" spans="1:8" ht="40" customHeight="1">
-      <c r="A7" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="85" t="s">
+      <c r="D7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="85" t="s">
+      <c r="H7" s="57" t="s">
         <v>160</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
@@ -4173,24 +4473,24 @@
       <c r="H8" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="87"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" s="28"/>
@@ -4216,32 +4516,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF59A2-F1BF-1F4B-9B11-0F651E048B19}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="28" customWidth="1"/>
-    <col min="3" max="7" width="14.83203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="28" customWidth="1"/>
+    <col min="5" max="7" width="14.83203125" style="28" customWidth="1"/>
     <col min="8" max="8" width="39.1640625" style="28" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -4270,7 +4572,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="92" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="31" t="s">
@@ -4291,12 +4593,12 @@
       <c r="G3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="28" t="s">
         <v>104</v>
       </c>
@@ -4315,10 +4617,10 @@
       <c r="G4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="1:8" ht="31" customHeight="1">
-      <c r="A5" s="76"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="38" t="s">
         <v>105</v>
       </c>
@@ -4337,10 +4639,10 @@
       <c r="G5" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="67"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="49" t="s">
         <v>106</v>
       </c>
@@ -4359,16 +4661,16 @@
       <c r="G6" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="65" t="s">
         <v>135</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -4388,132 +4690,180 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="70"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="87"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="H11" s="87"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="H12" s="87"/>
+    </row>
+    <row r="13" spans="1:8" ht="23" customHeight="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="62" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-    </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-    </row>
-    <row r="13" spans="1:8" ht="23" customHeight="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="94" t="s">
-        <v>168</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="71"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="70"/>
+      <c r="A14" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="71"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="H16" s="74"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="29" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="88"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="H18" s="90"/>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="91"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="79" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="51" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="H3:H6"/>
@@ -4522,9 +4872,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{E749A47B-FC7F-3F42-9E3E-E5E7DC46933C}"/>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{E749A47B-FC7F-3F42-9E3E-E5E7DC46933C}"/>
     <hyperlink ref="A3:A6" r:id="rId2" display="LoFreq" xr:uid="{7BBE7D8C-97E2-BA49-9BBB-E033AF299A97}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{1F2C2774-9A84-964E-9ECA-3BB0767CC27B}"/>
+    <hyperlink ref="A25" r:id="rId3" xr:uid="{1F2C2774-9A84-964E-9ECA-3BB0767CC27B}"/>
     <hyperlink ref="A7" r:id="rId4" xr:uid="{3F7D9DB8-7C53-FD4D-B9E6-E9A60C3F7082}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4548,16 +4898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605B369-A00D-204B-8E5F-F19245661430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A684212-341D-0B47-80EE-7CD4A57C2A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2080" windowWidth="22340" windowHeight="14420" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="39340" yWindow="1420" windowWidth="22340" windowHeight="14420" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
   <si>
     <t>BWA</t>
   </si>
@@ -1274,18 +1274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输出经过比对校正后的bam文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比对校正，,对已经比对好的 BAM 文件进行局部的比对校正.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入indel质量分数，将 Indel 质量分数插入已经比对好的 BAM 文件中，进一步增强后续变异检测的准确性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">LoFreq </t>
     </r>
@@ -1362,23 +1350,526 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变异调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.xxx.bam; 2. genome.fa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.比对后的</t>
+      <t>1. xxx.bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. xxx.fa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.vcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出包含等位基因频率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lofreq call </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出过滤后的干净</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastp</t>
+  </si>
+  <si>
+    <t>Fastp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于高通量测序数据的质量控制和数据过滤，并且能输出过滤后的html质控报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质控过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入双端或者单端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测序文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. xxx_clean.fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. xxx.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3. xxx.json</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤后的fq文件；2. html格式的质控报告；3. json格式储存的一些质控信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snippy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snippy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于检测单倍体基因组（如细菌、病毒等）中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SNPs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（单核苷酸多态性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Indels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snippy</t>
+  </si>
+  <si>
+    <t>1. genome.fa; 2. xxxfq.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双端测序文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. xxx.raw.vcf; 2.xxx.filt.vcf; 3.xxx.vcf.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从比对文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">BAM/SAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）中根据基因注释文件（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GTF/GFF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）计数每个基因的读段数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
     </r>
     <r>
       <rPr>
@@ -1393,11 +1884,1235 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。通常是使用bwa; 2. 参考基因组（必须是已建立faidx索引的）</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因组注释文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。需要分别定量之后再合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SAM/BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件的基因表达计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gene_counts.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gene_counts.txt.summary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  FeatureCounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分隔的文本文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于计数结果的统计总结信息文件（通常以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算速度快，内存占用低，适用于大数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立索引，一共有两种建立索引的方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于转录本参考序列的索引构建。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用基因组信息增强的转录本索引构建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考转录本序列。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出一个包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个索引文件的索引目录。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速处理大规模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，对基因表达定量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>salmon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xxx.fq</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引所在的目录。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定输出目录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">quant.sf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是保存定量结果的文本文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行转录本组装和基因表达量估算。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出四个文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.fpkm_tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">isoforms.fpkm_tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了基因水平和转录本水平的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> skipped.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> transcripts.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了转录本组装结果和未成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及的文件格式参考</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录本序列</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cdna.fa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk VariantFiltration</t>
+  </si>
+  <si>
+    <t>genome.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCFtools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools mpilup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.xxx.bam; 2. genome.fa</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。通常是使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bwa; 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组（必须是已建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>faidx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引的）</t>
+    </r>
+  </si>
+  <si>
+    <t>xxx.vcf.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pileup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息，并输出用于后续变异检测的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> VCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk CreateSequenceDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk MarkDuplicates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk HaplotypeCaller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mpilup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行最终的变异调用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genome.fa.dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.vcf/xxx.gvcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk CombineGVCFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk GenotypeGVCFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.gvcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx_combine.gvcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对校正，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对已经比对好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行局部的比对校正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。通常是使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bwa; 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组（必须是已建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>faidx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出经过比对校正后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>indel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量分数，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Indel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量分数插入已经比对好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中，进一步增强后续变异检测的准确性。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,38 +3128,16 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>文件，一般是比对校正后的bam文件；2. 参考基因组</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. xxx.bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2. xxx.fa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.bam</t>
+      <t>文件，一般是比对校正后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
     </r>
     <r>
       <rPr>
@@ -1463,6 +3156,137 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异调用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异过滤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测单倍体基因组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>snps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>indels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>snippy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会输出包括比对文件等多个中间文件，主要结果时。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Freebayes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到的所有原始变异文件，未经过滤。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -1473,33 +3297,318 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>经过过滤的得到的高置信读变异。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3. bgzip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建参考基因组的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序列字典文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他工具使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出参考基因组字典索引</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强大的基因组分析工具套件，广泛应用于变异检测和基因组数据处理。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> PCR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或测序过程中的重复读段，以避免在变异检测中因重复读段而产生偏差。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出去重后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去重后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>参考基因组</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxx.vcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出包含等位基因频率的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出原始的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">vcf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
     </r>
     <r>
       <rPr>
@@ -1514,179 +3623,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变异过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lofreq call </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>得到的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将多个样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GVCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件合并为一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GVCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出过滤后的干净</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合并后的多样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fastp</t>
-  </si>
-  <si>
-    <t>Fastp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于高通量测序数据的质量控制和数据过滤，并且能输出过滤后的html质控报告。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据质控过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入双端或者单端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测序文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. xxx_clean.fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2. xxx.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3. xxx.json</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过滤后的fq文件；2. html格式的质控报告；3. json格式储存的一些质控信息。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过堆叠比对数据生成变异候选位点的序列深度信息</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1702,957 +3728,46 @@
         <rFont val="等线"/>
         <family val="4"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>输出的vcf文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snippy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Snippy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于检测单倍体基因组（如细菌、病毒等）中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> SNPs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（单核苷酸多态性）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Indels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（插入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的工具</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snippy</t>
-  </si>
-  <si>
-    <t>检测单倍体基因组snps和indels变异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. genome.fa; 2. xxxfq.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2. fastq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双端测序文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. xxx.raw.vcf; 2.xxx.filt.vcf; 3.xxx.vcf.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>snippy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会输出包括比对文件等多个中间文件，主要结果时。1. Freebayes 检测到的所有原始变异文件，未经过滤。2.经过过滤的得到的高置信读变异。3. bgzip压缩的 vcf文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Snippy</t>
+      </rPr>
+      <t>输出的</t>
     </r>
     <r>
       <rPr>
         <u/>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
         <color theme="10"/>
         <rFont val="等线"/>
         <family val="4"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>输出的vcf文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从比对文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">BAM/SAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式）中根据基因注释文件（如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> GTF/GFF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式）计数每个基因的读段数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>sam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因组注释文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。需要分别定量之后再合并。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> SAM/BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件的基因表达计数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gene_counts.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> gene_counts.txt.summary</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.  FeatureCounts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）分隔的文本文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于计数结果的统计总结信息文件（通常以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结尾）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算速度快，内存占用低，适用于大数据量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RNA-Seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立索引，一共有两种建立索引的方式，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于转录本参考序列的索引构建。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用基因组信息增强的转录本索引构建</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的参考转录本序列。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出一个包含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个索引文件的索引目录。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速处理大规模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RNA-Seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件，对基因表达定量</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>salmon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> xxx.fq</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引所在的目录。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2. fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的测序数据。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指定输出目录，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">quant.sf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是保存定量结果的文本文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件进行转录本组装和基因表达量估算。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出四个文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>genes.fpkm_tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">isoforms.fpkm_tracking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别记录了基因水平和转录本水平的。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> skipped.gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> transcripts.gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别记录了转录本组装结果和未成功</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涉及的文件格式参考</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Snippy</t>
+    </r>
     <r>
       <rPr>
         <u/>
         <sz val="14"/>
         <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转录本序列</t>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的</t>
     </r>
     <r>
       <rPr>
@@ -2662,192 +3777,59 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> cdna.fa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk CombineGVCFs</t>
-  </si>
-  <si>
-    <t>gatk GenotypeGVCFs</t>
-  </si>
-  <si>
-    <t>gatk VariantFiltration</t>
-  </si>
-  <si>
-    <t>创建参考基因组的s序列字典文件（.dict），供 GATK 和其他工具使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genome.fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的参考基因组</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记 PCR 或测序过程中的重复读段，以避免在变异检测中因重复读段而产生偏差。</t>
-  </si>
-  <si>
-    <t>将多个样本的 GVCF 文件合并为一个 GVCF 文件。</t>
-  </si>
-  <si>
-    <t>BCFtools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcftools mpilup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcftools call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过堆叠比对数据生成变异候选位点的序列深度信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.xxx.bam; 2. genome.fa</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。通常是使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">bwa; 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组（必须是已建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>faidx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引的）</t>
-    </r>
-  </si>
-  <si>
-    <t>xxx.vcf.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> pileup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息，并输出用于后续变异检测的</t>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成联合变异分型的过程，能够从多个样本的 gVCF 文件中提取变异信息并进行分型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输出标准</t>
     </r>
     <r>
       <rPr>
@@ -2862,52 +3844,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk CreateSequenceDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk MarkDuplicates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk HaplotypeCaller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件</t>
@@ -2915,34 +3853,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mpilup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>得到的</t>
+    <t>过滤低质量位点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原始</t>
     </r>
     <r>
       <rPr>
@@ -2961,12 +3884,44 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>文件进行最终的变异调用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcftools filter</t>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx_filter.vcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出过滤后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2974,7 +3929,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3188,13 +4143,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="14"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3202,29 +4155,19 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3311,7 +4254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3399,9 +4342,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3429,191 +4369,146 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3949,16 +4844,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -3987,7 +4882,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -4008,12 +4903,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4032,10 +4927,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="78"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4056,12 +4951,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="76"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -4080,10 +4975,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="78"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="62" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4104,12 +4999,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -4128,10 +5023,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="78"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="62" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4152,12 +5047,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="66" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="76"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -4176,10 +5071,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="78"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -4200,12 +5095,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="70"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -4222,7 +5117,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -4287,28 +5182,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="26" style="50" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="41" style="50" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="26" style="43" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="41" style="43" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -4337,129 +5232,129 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="46" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>153</v>
+      <c r="G5" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="C6" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="85"/>
+      <c r="G6" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>160</v>
+      <c r="G7" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
@@ -4473,24 +5368,24 @@
       <c r="H8" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>162</v>
+      <c r="C10" s="52" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" s="28"/>
@@ -4518,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF59A2-F1BF-1F4B-9B11-0F651E048B19}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4534,16 +5429,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -4572,290 +5467,343 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>115</v>
+      <c r="C3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="74" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
-      <c r="A4" s="92"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>114</v>
-      </c>
       <c r="E4" s="26" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="87"/>
+      <c r="G4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="31" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="87"/>
+      <c r="G5" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>122</v>
+      <c r="C6" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="85"/>
+        <v>113</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
-      <c r="A7" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>133</v>
+      <c r="A7" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="A8" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
+      <c r="A9" s="75"/>
+      <c r="B9" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="87"/>
+      <c r="E9" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="H10" s="87"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="H11" s="87"/>
+      <c r="C11" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="H12" s="87"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" ht="23" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="85"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="84"/>
+      <c r="A14" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="85"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="H18" s="90"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="91"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="79"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="29" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="51" t="s">
-        <v>140</v>
+      <c r="A25" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4876,6 +5824,7 @@
     <hyperlink ref="A3:A6" r:id="rId2" display="LoFreq" xr:uid="{7BBE7D8C-97E2-BA49-9BBB-E033AF299A97}"/>
     <hyperlink ref="A25" r:id="rId3" xr:uid="{1F2C2774-9A84-964E-9ECA-3BB0767CC27B}"/>
     <hyperlink ref="A7" r:id="rId4" xr:uid="{3F7D9DB8-7C53-FD4D-B9E6-E9A60C3F7082}"/>
+    <hyperlink ref="A8:A13" r:id="rId5" display="GATK" xr:uid="{50C49E8C-1D00-2545-B270-061F1C4E5D57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4898,16 +5847,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -4936,33 +5885,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>125</v>
+      <c r="A3" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>128</v>
+      <c r="E3" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -4988,7 +5937,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>98</v>
       </c>
     </row>

--- a/常用工具/常用软件统计.xlsx
+++ b/常用工具/常用软件统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Github_repository/BioinfoDemoLab/常用工具/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A684212-341D-0B47-80EE-7CD4A57C2A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C639D-1827-A646-A341-B650EFEAC5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39340" yWindow="1420" windowWidth="22340" windowHeight="14420" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="2" xr2:uid="{47675627-AA29-8145-A4D6-D12822050ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="序列比对" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="206">
   <si>
     <t>BWA</t>
   </si>
@@ -1274,6 +1274,1306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.xxx.bam; 2. genome.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.vcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastp</t>
+  </si>
+  <si>
+    <t>Fastp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于高通量测序数据的质量控制和数据过滤，并且能输出过滤后的html质控报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质控过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入双端或者单端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测序文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. xxx_clean.fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. xxx.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3. xxx.json</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤后的fq文件；2. html格式的质控报告；3. json格式储存的一些质控信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snippy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snippy</t>
+  </si>
+  <si>
+    <t>1. genome.fa; 2. xxxfq.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. xxx.raw.vcf; 2.xxx.filt.vcf; 3.xxx.vcf.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从比对文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">BAM/SAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）中根据基因注释文件（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GTF/GFF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式）计数每个基因的读段数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因组注释文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。需要分别定量之后再合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SAM/BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件的基因表达计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gene_counts.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gene_counts.txt.summary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  FeatureCounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分隔的文本文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于计数结果的统计总结信息文件（通常以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算速度快，内存占用低，适用于大数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立索引，一共有两种建立索引的方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于转录本参考序列的索引构建。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用基因组信息增强的转录本索引构建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考转录本序列。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出一个包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个索引文件的索引目录。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速处理大规模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RNA-Seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，对基因表达定量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>salmon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xxx.fq</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引所在的目录。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. fq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的测序数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定输出目录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">quant.sf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是保存定量结果的文本文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行转录本组装和基因表达量估算。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出四个文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.fpkm_tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">isoforms.fpkm_tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了基因水平和转录本水平的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> skipped.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> transcripts.gtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别记录了转录本组装结果和未成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及的文件格式参考</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录本序列</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cdna.fa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk VariantFiltration</t>
+  </si>
+  <si>
+    <t>genome.fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCFtools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools mpilup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.xxx.bam; 2. genome.fa</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。通常是使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bwa; 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组（必须是已建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>faidx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引的）</t>
+    </r>
+  </si>
+  <si>
+    <t>xxx.vcf.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk CreateSequenceDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk MarkDuplicates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk HaplotypeCaller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcftools filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genome.fa.dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.vcf/xxx.gvcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk CombineGVCFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatk GenotypeGVCFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.gvcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx_combine.gvcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>indel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量分数，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Indel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量分数插入已经比对好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中，进一步增强后续变异检测的准确性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合并后的多样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+  </si>
+  <si>
+    <t>xxx_filter.vcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx_raw.vcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对校正，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对已经比对好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行局部的比对校正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。通常是使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bwa; 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组（必须是已建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>faidx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出经过比对校正后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">LoFreq </t>
     </r>
@@ -1281,30 +2581,75 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-      </rPr>
-      <t>高精度检测单个样品中的低频变异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，适用于研究病毒、癌症等需要高灵敏度变异检测的领域。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高精度检测单个样品中的低频变异，适用于研究病毒、癌症等需要高灵敏度变异检测的领域。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，一般是比对校正后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>插入</t>
@@ -1322,8 +2667,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分数的</t>
@@ -1341,8 +2686,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -1350,7 +2695,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.xxx.bam; 2. genome.fa</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异调用</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1361,8 +2715,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -1386,8 +2740,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件；</t>
@@ -1405,8 +2759,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>参考基因组</t>
@@ -1414,16 +2768,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxx.vcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>输出包含等位基因频率的</t>
@@ -1441,8 +2791,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -1451,14 +2801,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异过滤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">lofreq call </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>得到的</t>
@@ -1476,8 +2839,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -1489,8 +2852,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>输出过滤后的干净</t>
@@ -1508,8 +2871,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件</t>
@@ -1517,92 +2880,498 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fastp</t>
-  </si>
-  <si>
-    <t>Fastp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于高通量测序数据的质量控制和数据过滤，并且能输出过滤后的html质控报告。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据质控过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入双端或者单端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测序文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. xxx_clean.fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2. xxx.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3. xxx.json</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测单倍体基因组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>snps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>indels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. fastq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双端测序文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>snippy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会输出包括比对文件等多个中间文件，主要结果时。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Freebayes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到的所有原始变异文件，未经过滤。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经过过滤的得到的高置信读变异。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3. bgzip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snippy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于检测单倍体基因组（如细菌、病毒等）中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SNPs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（单核苷酸多态性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Indels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建参考基因组的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序列字典文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他工具使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出参考基因组字典索引</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强大的基因组分析工具套件，广泛应用于变异检测和基因组数据处理。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> PCR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或测序过程中的重复读段，以避免在变异检测中因重复读段而产生偏差。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出去重后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1614,50 +3383,81 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过滤后的fq文件；2. html格式的质控报告；3. json格式储存的一些质控信息。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snippy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Snippy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于检测单倍体基因组（如细菌、病毒等）中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> SNPs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（单核苷酸多态性）</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去重后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考基因组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出原始的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">vcf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
     </r>
     <r>
       <rPr>
@@ -1672,213 +3472,20 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Indels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（插入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的工具</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snippy</t>
-  </si>
-  <si>
-    <t>1. genome.fa; 2. xxxfq.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2. fastq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双端测序文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. xxx.raw.vcf; 2.xxx.filt.vcf; 3.xxx.vcf.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从比对文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">BAM/SAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式）中根据基因注释文件（如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> GTF/GFF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式）计数每个基因的读段数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>sam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
     </r>
     <r>
       <rPr>
@@ -1890,69 +3497,342 @@
       </rPr>
       <t>文件。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因组注释文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出结果是一个包含基因名称和读段计数的文本文件，每行表示一个基因及其对应的读段数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持不同计数模式，能够处理复杂基因结构，但是无法输入多个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。需要分别定量之后再合并。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将多个样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GVCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件合并为一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> GVCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成联合变异分型的过程，能够从多个样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gVCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中提取变异信息并进行分型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多样本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gvcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> VCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤低质量位点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出过滤后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过堆叠比对数据生成变异候选位点的序列深度信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pileup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息，并输出用于后续变异检测的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> VCF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式文件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,551 +3854,126 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> SAM/BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件的基因表达计数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gene_counts.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> gene_counts.txt.summary</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.  FeatureCounts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成的核心输出文件，包含了所有指定基因或特征的读段计数结果。通常是一个以制表符（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）分隔的文本文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于计数结果的统计总结信息文件（通常以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结尾）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算速度快，内存占用低，适用于大数据量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RNA-Seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立索引，一共有两种建立索引的方式，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于转录本参考序列的索引构建。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用基因组信息增强的转录本索引构建</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的参考转录本序列。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出一个包含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个索引文件的索引目录。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速处理大规模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RNA-Seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据，适合转录本水平的基因表达定量分析，但是需要有高质量的转录本参考文件。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件，对基因表达定量</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>salmon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> xxx.fq</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引所在的目录。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2. fq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的测序数据。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指定输出目录，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">quant.sf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是保存定量结果的文本文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件进行转录本组装和基因表达量估算。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出四个文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>genes.fpkm_tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">isoforms.fpkm_tracking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别记录了基因水平和转录本水平的。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> skipped.gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> transcripts.gtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别记录了转录本组装结果和未成功</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于转录本组装和基因表达定量分析，适合于新转录本发现和定量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涉及的文件格式参考</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>mpilup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行最终的变异调用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mpilup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成最终的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LoFreq</t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -2528,7 +3983,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>转录本序列</t>
+      <t>输出的</t>
     </r>
     <r>
       <rPr>
@@ -2538,232 +3993,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> cdna.fa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk VariantFiltration</t>
-  </si>
-  <si>
-    <t>genome.fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的参考基因组</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCFtools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcftools mpilup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcftools call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.xxx.bam; 2. genome.fa</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。通常是使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">bwa; 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组（必须是已建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>faidx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引的）</t>
-    </r>
-  </si>
-  <si>
-    <t>xxx.vcf.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> pileup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息，并输出用于后续变异检测的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> VCF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk CreateSequenceDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk MarkDuplicates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk HaplotypeCaller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+      <t>vcf</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件</t>
@@ -2772,38 +4010,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mpilup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>得到的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
+      <t>Snippy</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2811,1113 +4035,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件进行最终的变异调用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcftools filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genome.fa.dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.vcf/xxx.gvcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk CombineGVCFs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatk GenotypeGVCFs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.gvcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单样本的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gvcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx_combine.gvcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对校正，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对已经比对好的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件进行局部的比对校正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比对后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。通常是使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">bwa; 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组（必须是已建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>faidx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引的）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出经过比对校正后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>插入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>indel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质量分数，将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Indel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质量分数插入已经比对好的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> BAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件中，进一步增强后续变异检测的准确性。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件，一般是比对校正后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变异调用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变异过滤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测单倍体基因组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>snps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>indels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变异</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>snippy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会输出包括比对文件等多个中间文件，主要结果时。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Freebayes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测到的所有原始变异文件，未经过滤。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经过过滤的得到的高置信读变异。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3. bgzip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建参考基因组的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序列字典文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.dict</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），供</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> GATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和其他工具使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出参考基因组字典索引</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>强大的基因组分析工具套件，广泛应用于变异检测和基因组数据处理。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标记</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> PCR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或测序过程中的重复读段，以避免在变异检测中因重复读段而产生偏差。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出去重后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去重后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考基因组</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出原始的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">vcf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gvcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将多个样本的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> GVCF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件合并为一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> GVCF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合并后的多样本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gvcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过堆叠比对数据生成变异候选位点的序列深度信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LoFreq</t>
-    </r>
-    <r>
-      <rPr>
         <u/>
         <sz val="14"/>
         <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出的</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Snippy</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出的</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成联合变异分型的过程，能够从多个样本的 gVCF 文件中提取变异信息并进行分型</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多样本的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gvcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>输出标准</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> VCF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过滤低质量位点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx_filter.vcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出过滤后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vcf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件</t>
@@ -3929,7 +4051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4144,31 +4266,10 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4254,7 +4355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4363,9 +4464,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4420,9 +4518,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4483,32 +4578,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4844,16 +4915,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -4882,7 +4953,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -4903,12 +4974,12 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4927,10 +4998,10 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4951,12 +5022,12 @@
       <c r="G5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="63"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -4975,10 +5046,10 @@
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4999,12 +5070,12 @@
       <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="63"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -5023,10 +5094,10 @@
       <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5047,12 +5118,12 @@
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="63"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -5071,10 +5142,10 @@
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -5095,12 +5166,12 @@
       <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="56" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
@@ -5117,7 +5188,7 @@
       <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="2"/>
@@ -5182,28 +5253,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="26" style="43" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="41" style="43" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="26" style="42" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="41" style="42" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -5232,129 +5303,129 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="46" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="E3" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="67" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23" customHeight="1">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="72"/>
+        <v>137</v>
+      </c>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>149</v>
+      <c r="G7" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
@@ -5368,24 +5439,24 @@
       <c r="H8" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>151</v>
+      <c r="C10" s="51" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" s="28"/>
@@ -5411,10 +5482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF59A2-F1BF-1F4B-9B11-0F651E048B19}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5429,16 +5500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -5467,162 +5538,162 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>107</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>108</v>
+        <v>167</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
-      <c r="A4" s="75"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>107</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="74"/>
+        <v>170</v>
+      </c>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="31" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="74"/>
+        <v>174</v>
+      </c>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="41" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="72"/>
+        <v>177</v>
+      </c>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>182</v>
+      <c r="A7" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>178</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
-      <c r="A8" s="69" t="s">
-        <v>130</v>
+      <c r="A8" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="H8" s="69" t="s">
         <v>185</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="A9" s="75"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="28" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>107</v>
@@ -5630,188 +5701,188 @@
       <c r="G9" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1">
-      <c r="A10" s="75"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="28" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>189</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
-      <c r="A11" s="75"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="28" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>191</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="74"/>
+        <v>162</v>
+      </c>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1">
-      <c r="A12" s="75"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>196</v>
+        <v>158</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>197</v>
+        <v>160</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="74"/>
+        <v>109</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8" ht="23" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>199</v>
+        <v>143</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>200</v>
+        <v>109</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="72"/>
+        <v>163</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="A14" s="69" t="s">
-        <v>155</v>
+      <c r="A14" s="67" t="s">
+        <v>145</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="71"/>
+        <v>200</v>
+      </c>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
-      <c r="A15" s="75"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="26" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="H15" s="74"/>
+        <v>109</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
-      <c r="A16" s="75"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="H16" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="79"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="29" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="H14:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="H3:H6"/>
@@ -5820,9 +5891,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1" xr:uid="{E749A47B-FC7F-3F42-9E3E-E5E7DC46933C}"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{E749A47B-FC7F-3F42-9E3E-E5E7DC46933C}"/>
     <hyperlink ref="A3:A6" r:id="rId2" display="LoFreq" xr:uid="{7BBE7D8C-97E2-BA49-9BBB-E033AF299A97}"/>
-    <hyperlink ref="A25" r:id="rId3" xr:uid="{1F2C2774-9A84-964E-9ECA-3BB0767CC27B}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{1F2C2774-9A84-964E-9ECA-3BB0767CC27B}"/>
     <hyperlink ref="A7" r:id="rId4" xr:uid="{3F7D9DB8-7C53-FD4D-B9E6-E9A60C3F7082}"/>
     <hyperlink ref="A8:A13" r:id="rId5" display="GATK" xr:uid="{50C49E8C-1D00-2545-B270-061F1C4E5D57}"/>
   </hyperlinks>
@@ -5847,16 +5918,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -5885,29 +5956,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>118</v>
+      <c r="A3" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>121</v>
+      <c r="E3" s="38" t="s">
+        <v>114</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
